--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298176.2195423979</v>
+        <v>295475.0028909412</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>244.8448976285502</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>263.7138800015062</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>237.9688518868388</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>124.0182950532139</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>224.7038052045892</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>65.77030295285029</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>197.2093417177885</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.687727815433</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776992</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863688</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>127.2798016396617</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.312012538744979</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>30.25488447872549</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>158.7608692779893</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>117.4731349443461</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>85.82538108525388</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643337</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>331.0052706490449</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1190,7 +1190,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.90616225919203</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>102.9673102247907</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.3998342615256</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>48.70143165727205</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>158.3683439470736</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>30.05706037504467</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428091</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>116.2836593751498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.01980761147174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>124.0270735093604</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>99.97427419833832</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>214.4033048062051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>93.62264337260675</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833767</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>35.41770597126626</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881268</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703265</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881279</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880069</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7247859410127</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>801.1705019471535</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799755</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>534.7928453799755</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>534.7928453799755</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
         <v>287.4747669672985</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4370,10 +4370,10 @@
         <v>801.1705019471535</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471535</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="Y2" t="n">
-        <v>801.1705019471535</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,10 +4410,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302312</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
         <v>529.474696326755</v>
@@ -4437,22 +4437,22 @@
         <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>691.0742594480922</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>691.0742594480922</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>455.9221512163495</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W3" t="n">
-        <v>228.9486106056533</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="X3" t="n">
-        <v>21.0971104001205</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.0971104001205</v>
+        <v>190.7335740917564</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.0690574266841</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1328744987773</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2429270008669</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4492,10 +4492,10 @@
         <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227047</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407077</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407077</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407077</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>726.8616365702143</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>726.8616365702143</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.0690574266841</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>799.7653319264575</v>
+        <v>821.8262933957171</v>
       </c>
       <c r="C5" t="n">
-        <v>430.8028149860457</v>
+        <v>821.8262933957171</v>
       </c>
       <c r="D5" t="n">
-        <v>430.8028149860457</v>
+        <v>463.5605947889667</v>
       </c>
       <c r="E5" t="n">
-        <v>430.8028149860457</v>
+        <v>463.5605947889667</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631537</v>
+        <v>456.6150940397632</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523464</v>
+        <v>444.0706587086825</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523464</v>
+        <v>130.9983022541607</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523464</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275209</v>
+        <v>93.76641159275187</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245578</v>
+        <v>239.0325989245571</v>
       </c>
       <c r="L5" t="n">
-        <v>456.149911482566</v>
+        <v>456.1499114825646</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748899</v>
+        <v>729.4041931748876</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202384</v>
+        <v>1011.693823202381</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798419</v>
+        <v>1264.916654798415</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189417</v>
+        <v>1446.535482189412</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261732</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261732</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261732</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="T5" t="n">
-        <v>1406.185455060054</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="U5" t="n">
-        <v>1152.533987196572</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="V5" t="n">
-        <v>1152.533987196572</v>
+        <v>1203.688023918156</v>
       </c>
       <c r="W5" t="n">
-        <v>799.7653319264575</v>
+        <v>1203.688023918156</v>
       </c>
       <c r="X5" t="n">
-        <v>799.7653319264575</v>
+        <v>830.2222656570757</v>
       </c>
       <c r="Y5" t="n">
-        <v>799.7653319264575</v>
+        <v>821.8262933957171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.25550759768464</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="C6" t="n">
-        <v>61.25550759768464</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="D6" t="n">
-        <v>61.25550759768464</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="E6" t="n">
-        <v>61.25550759768464</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="F6" t="n">
-        <v>61.25550759768464</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="G6" t="n">
-        <v>61.25550759768464</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="H6" t="n">
-        <v>61.25550759768464</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523464</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034403</v>
+        <v>49.44206107563433</v>
       </c>
       <c r="K6" t="n">
-        <v>180.983551651655</v>
+        <v>388.9600665101437</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830078</v>
+        <v>583.4554103414958</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537547</v>
+        <v>829.7791710122419</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259781</v>
+        <v>1097.031033584464</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891498</v>
+        <v>1319.294480749983</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090186</v>
+        <v>1478.347425948671</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261732</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261732</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655827</v>
+        <v>1390.282497655821</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207511</v>
+        <v>1194.377855207505</v>
       </c>
       <c r="U6" t="n">
-        <v>966.2567715281157</v>
+        <v>1034.013340785294</v>
       </c>
       <c r="V6" t="n">
-        <v>731.104663296373</v>
+        <v>798.8612325535514</v>
       </c>
       <c r="W6" t="n">
-        <v>476.8673065681714</v>
+        <v>544.6238758253498</v>
       </c>
       <c r="X6" t="n">
-        <v>269.0158063626386</v>
+        <v>336.772375619817</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.25550759768464</v>
+        <v>129.0120768548631</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.2792314141128</v>
+        <v>117.3873223517536</v>
       </c>
       <c r="C7" t="n">
-        <v>151.2792314141128</v>
+        <v>117.3873223517536</v>
       </c>
       <c r="D7" t="n">
-        <v>151.2792314141128</v>
+        <v>117.3873223517536</v>
       </c>
       <c r="E7" t="n">
-        <v>151.2792314141128</v>
+        <v>117.3873223517536</v>
       </c>
       <c r="F7" t="n">
-        <v>32.6194991470966</v>
+        <v>117.3873223517536</v>
       </c>
       <c r="G7" t="n">
-        <v>32.6194991470966</v>
+        <v>117.3873223517536</v>
       </c>
       <c r="H7" t="n">
-        <v>32.6194991470966</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="I7" t="n">
-        <v>32.6194991470966</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523464</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223272</v>
+        <v>157.4322756223268</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830399</v>
+        <v>375.1387655830391</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388168</v>
+        <v>615.0688576388155</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974844</v>
+        <v>854.7285647974828</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891674</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934024</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495187</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402744</v>
+        <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402744</v>
+        <v>1113.866490402742</v>
       </c>
       <c r="T7" t="n">
-        <v>889.2012322792888</v>
+        <v>889.2012322792863</v>
       </c>
       <c r="U7" t="n">
-        <v>600.0613614556603</v>
+        <v>600.0613614556578</v>
       </c>
       <c r="V7" t="n">
-        <v>600.0613614556603</v>
+        <v>345.3768732497709</v>
       </c>
       <c r="W7" t="n">
-        <v>600.0613614556603</v>
+        <v>345.3768732497709</v>
       </c>
       <c r="X7" t="n">
-        <v>372.0718105576429</v>
+        <v>117.3873223517536</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.2792314141128</v>
+        <v>117.3873223517536</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267.498902304191</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C8" t="n">
-        <v>898.5363853637798</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D8" t="n">
-        <v>540.2706867570294</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.84766053555</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.84766053555</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>114.5432626034356</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844856</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159572</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751772</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>662.7751904765219</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>662.7751904765219</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765219</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4960,52 +4960,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1429.855329524634</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1206.876848719369</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1206.876848719369</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>952.1923605134825</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>662.7751904765219</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>662.7751904765219</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>662.7751904765219</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1536.180909273856</v>
+        <v>1872.090169197695</v>
       </c>
       <c r="C11" t="n">
-        <v>1167.218392333444</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1167.218392333445</v>
+        <v>1195.238779417687</v>
       </c>
       <c r="E11" t="n">
-        <v>781.4301397352006</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>370.4442349455929</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455929</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592074</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
         <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
         <v>3789.749829464062</v>
@@ -5066,25 +5066,25 @@
         <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3827.689930485662</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3623.711324067026</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3370.217382188554</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3039.154494844984</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2686.385839574869</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2312.92008131379</v>
+        <v>2262.229501173507</v>
       </c>
       <c r="Y11" t="n">
-        <v>1922.780749337978</v>
+        <v>1872.090169197695</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592074</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335451</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914967</v>
+        <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948025</v>
+        <v>996.4574081599343</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649235</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>405.0036732936958</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>245.0356491047325</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>245.0356491047325</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>245.0356491047325</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047325</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
         <v>77.53766591592074</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
         <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1868.62761945888</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1579.535926408331</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1324.851438202444</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1035.434268165483</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>807.4447172674656</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>586.6521381239355</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452619</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290466</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011397</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,16 +5522,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876684</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597616</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597616</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597616</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>265.0731740618513</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>97.87707477673121</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038337</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179081</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>184.7035232280589</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280589</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307814</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028745</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797189</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,28 +6686,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,10 +6862,10 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7020,19 +7020,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797744</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511391</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166296</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121642</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121642</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121642</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L43" t="n">
         <v>826.140538179774</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7652,7 +7652,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127258</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636963</v>
+        <v>34.43939438637003</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.5605895300094</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.6378772658575</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9556134883073781</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241561</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-6.220446428402246e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.87305750948195</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.18367433888006</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8.87847715155425</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>188.5275929770501</v>
       </c>
     </row>
     <row r="14">
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909865034</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>170.2393389614413</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>136.2749052347521</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.58839950885192</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459293</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>72.11969353038586</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294997</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>123.7828069546815</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482315</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>45.84813034729927</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194085</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194236</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393035</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>46.45968844823144</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959685.3451368632</v>
+        <v>959685.3451368633</v>
       </c>
     </row>
     <row r="6">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="E2" t="n">
         <v>329665.1599234784</v>
       </c>
       <c r="F2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="G2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="G2" t="n">
-        <v>363215.9698605029</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="J2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="J2" t="n">
-        <v>363215.9698605027</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605028</v>
@@ -26350,10 +26350,10 @@
         <v>363215.9698605027</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.969860503</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657093</v>
+        <v>132804.2190657073</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929355</v>
+        <v>265413.0723929373</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545776</v>
+        <v>313577.1573545775</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704284</v>
+        <v>189308.2687704288</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417473</v>
+        <v>30877.42926417435</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049512</v>
+        <v>65018.34502049554</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273088</v>
+        <v>81897.40371273083</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.310039863255952e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>210579.7944078824</v>
+        <v>210579.7944078828</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8011.893867085435</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731956</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732009</v>
+        <v>8117.312426731979</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731987</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731977</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426731988</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731994</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426732015</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>8117.312426732017</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731994</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426732005</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667509</v>
+        <v>72593.65038667497</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26522,46 +26522,46 @@
         <v>-620420.8547547632</v>
       </c>
       <c r="C6" t="n">
-        <v>-46508.86742133921</v>
+        <v>-46508.86742133761</v>
       </c>
       <c r="D6" t="n">
-        <v>-123200.0486557168</v>
+        <v>-123200.0486557184</v>
       </c>
       <c r="E6" t="n">
-        <v>-77061.37636557031</v>
+        <v>-77282.50767954497</v>
       </c>
       <c r="F6" t="n">
-        <v>64667.85883943518</v>
+        <v>64633.12091399892</v>
       </c>
       <c r="G6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="H6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844282</v>
       </c>
       <c r="I6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="J6" t="n">
-        <v>184976.9731907495</v>
+        <v>184942.2352653139</v>
       </c>
       <c r="K6" t="n">
-        <v>223098.6983456889</v>
+        <v>223063.9604202536</v>
       </c>
       <c r="L6" t="n">
-        <v>188957.7825893684</v>
+        <v>188923.0446639323</v>
       </c>
       <c r="M6" t="n">
-        <v>172078.7238971328</v>
+        <v>172043.9859716972</v>
       </c>
       <c r="N6" t="n">
-        <v>204136.55347784</v>
+        <v>204101.8155524044</v>
       </c>
       <c r="O6" t="n">
-        <v>253976.1276098637</v>
+        <v>253941.3896844279</v>
       </c>
       <c r="P6" t="n">
-        <v>253976.1276098636</v>
+        <v>253941.3896844281</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695765</v>
+        <v>717.3319511695751</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26790,7 +26790,7 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.687727815433</v>
+        <v>383.6877278154316</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000983</v>
+        <v>103.2769374000967</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479626</v>
+        <v>216.7329409479642</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974114</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267229</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139269</v>
+        <v>119.9738478139254</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846058</v>
+        <v>256.8971042846073</v>
       </c>
       <c r="E4" t="n">
         <v>328.6359918489704</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,22 +27036,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139269</v>
+        <v>119.9738478139254</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846056</v>
+        <v>256.8971042846073</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.542233338928781e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139269</v>
+        <v>119.9738478139254</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846058</v>
+        <v>256.8971042846073</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>162.0311481131612</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442038</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>148.2690867692148</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>42.51488859665339</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>26.9911779563304</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>138.9488612907435</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>89.31365661880253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792627839</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863664</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
-        <v>83.19244745715383</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>377.9259261173086</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333224</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.018580290791689</v>
+        <v>36.2734647695173</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713607</v>
+        <v>4.360182258713806</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>67.07900356461249</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>27.94791307858517</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>64.90096112310628</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015376</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643522</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.72857101443572</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137.5278003873771</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>91.69515013694675</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29035,70 +29035,70 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88374653736513</v>
+        <v>2.883746537365124</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579064</v>
+        <v>29.53316922579058</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817693</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756939</v>
+        <v>244.7543826756934</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023599</v>
+        <v>366.8233736023591</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952481</v>
+        <v>455.0768316952472</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791152</v>
+        <v>506.3606591791141</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284039</v>
+        <v>514.5541040284029</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974794</v>
+        <v>485.8788493974783</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562777</v>
+        <v>414.6863567562768</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868888</v>
+        <v>311.4121838868882</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277625</v>
+        <v>181.1461434277621</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020795</v>
+        <v>65.71337422020783</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731586</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892103</v>
+        <v>0.2306997229892098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54294042327041</v>
+        <v>1.542940423270407</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316423</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189789</v>
+        <v>53.12316808189778</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862627</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453802</v>
+        <v>249.1510419453797</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438669</v>
+        <v>335.0143230438662</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874192</v>
+        <v>390.9459133874184</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189125</v>
+        <v>401.2930884189116</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348681</v>
+        <v>367.1047769348673</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190663</v>
+        <v>294.6339480190657</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739562</v>
+        <v>196.9549915739558</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392953</v>
+        <v>95.79765189392933</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399202</v>
+        <v>28.65944163399197</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989063</v>
+        <v>6.219132670989049</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730533</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141859</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907945</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572065</v>
+        <v>38.90055892572057</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402944</v>
+        <v>91.45394400402925</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401178</v>
+        <v>150.2869235401175</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545452</v>
+        <v>192.3155201545448</v>
       </c>
       <c r="M7" t="n">
-        <v>202.769751377328</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022539</v>
+        <v>197.9483399022535</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669603</v>
+        <v>182.8373307669599</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960662</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266061</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565122</v>
+        <v>58.1626857456511</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101766</v>
+        <v>22.54303853101762</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52698388606067</v>
+        <v>5.526983886060658</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864694</v>
+        <v>0.07055724109864681</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
         <v>417.5746757598381</v>
@@ -31847,13 +31847,13 @@
         <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>250.1980451314294</v>
       </c>
       <c r="N12" t="n">
         <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>342.5951556909295</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383446</v>
@@ -31862,7 +31862,7 @@
         <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154048</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>218.6425359394819</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572288</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900762</v>
+        <v>63.70847814900711</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573793</v>
+        <v>146.7335225573786</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252608</v>
+        <v>219.3104167252599</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518424</v>
+        <v>276.0144259518414</v>
       </c>
       <c r="N5" t="n">
-        <v>285.141040431813</v>
+        <v>285.141040431812</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757926</v>
+        <v>255.7806379757916</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010081</v>
+        <v>183.4533610010073</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243936</v>
+        <v>89.10649401243873</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960544</v>
+        <v>18.93640691959575</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710212</v>
+        <v>342.9474802368782</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639927</v>
+        <v>196.459943263992</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654009</v>
+        <v>248.8118794654001</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355792</v>
+        <v>269.9513763355783</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904236</v>
+        <v>224.5085324904229</v>
       </c>
       <c r="P6" t="n">
-        <v>160.659540604736</v>
+        <v>160.6595406047355</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237838</v>
+        <v>56.97321748793428</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142349</v>
+        <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148613</v>
+        <v>219.9055454148609</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391686</v>
+        <v>242.3536283391681</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814825</v>
+        <v>242.0805122814821</v>
       </c>
       <c r="O7" t="n">
-        <v>207.422458681</v>
+        <v>207.4224586809996</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609597</v>
+        <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491167</v>
+        <v>22.15508137491145</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>63.93583437922477</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
         <v>279.7332367854791</v>
@@ -35495,13 +35495,13 @@
         <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>108.0640112094111</v>
       </c>
       <c r="N12" t="n">
         <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>199.998911246485</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240143</v>
@@ -35510,7 +35510,7 @@
         <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410458</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>91.80490927281524</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.261899706045</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243144</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
